--- a/Course_project/Инвентаризация_кода.xlsx
+++ b/Course_project/Инвентаризация_кода.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>№</t>
   </si>
@@ -110,6 +111,127 @@
   </si>
   <si>
     <t>Позитивный тест создания нового пользователя. По завершении теста должна появиться надпись "Your Account Has Been Created!"</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Описание шага</t>
+  </si>
+  <si>
+    <t>Селектор</t>
+  </si>
+  <si>
+    <t>Перейти на страницу авторизации пользователя</t>
+  </si>
+  <si>
+    <t>Перейти на URL: http://&lt;HOST_IP&gt;/index.php?route=account/login</t>
+  </si>
+  <si>
+    <t>▬</t>
+  </si>
+  <si>
+    <t>".well .btn.btn-primary"</t>
+  </si>
+  <si>
+    <t>Нажать кнопку Continue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Попадаем на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>http://172.19.16.142/index.php?route=account/register</t>
+    </r>
+  </si>
+  <si>
+    <t>Заполнить поле First Name</t>
+  </si>
+  <si>
+    <t>Заполнить поле Last Name</t>
+  </si>
+  <si>
+    <t>Заполнить поле E-Mail</t>
+  </si>
+  <si>
+    <t>Заполнить поле Telephone</t>
+  </si>
+  <si>
+    <t>Заполнить поле Password</t>
+  </si>
+  <si>
+    <t>Заполнить поле Password Confirm</t>
+  </si>
+  <si>
+    <t>Подтвердить ранее введённый пароль</t>
+  </si>
+  <si>
+    <t>Установить галочку в чекбокс "I have read and agree to the Privacy Policy"</t>
+  </si>
+  <si>
+    <t>"#input-firstname"</t>
+  </si>
+  <si>
+    <t>"#input-lastname"</t>
+  </si>
+  <si>
+    <t>"#input-password"</t>
+  </si>
+  <si>
+    <t>"#input-telephone"</t>
+  </si>
+  <si>
+    <t>"#input-email"</t>
+  </si>
+  <si>
+    <t>"#input-confirm"</t>
+  </si>
+  <si>
+    <t>By.NAME, "agree"</t>
+  </si>
+  <si>
+    <t>".pull-right .btn.btn-primary"</t>
+  </si>
+  <si>
+    <t>События при негативном тестировании</t>
+  </si>
+  <si>
+    <t>".alert.alert-danger.alert-dismissible"</t>
+  </si>
+  <si>
+    <t>".col-sm-10.text-danger"</t>
+  </si>
+  <si>
+    <t>Пояснение</t>
+  </si>
+  <si>
+    <t>Поп-ап предупреждение</t>
+  </si>
+  <si>
+    <t>First Name must be between 1 and 32 characters!</t>
+  </si>
+  <si>
+    <t>Last Name must be between 1 and 32 characters!</t>
+  </si>
+  <si>
+    <t>E-Mail Address does not appear to be valid!</t>
+  </si>
+  <si>
+    <t>Telephone must be between 3 and 32 characters!</t>
+  </si>
+  <si>
+    <t>Password must be between 4 and 20 characters!</t>
+  </si>
+  <si>
+    <t>Если оставить поля пустыми, не установить галочку в чекбокс и нажать кнопку Continue</t>
   </si>
 </sst>
 </file>
@@ -148,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,26 +278,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,231 +626,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -709,4 +861,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Course_project/Инвентаризация_кода.xlsx
+++ b/Course_project/Инвентаризация_кода.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Register new user" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>№</t>
   </si>
@@ -222,9 +223,6 @@
     <t>Last Name must be between 1 and 32 characters!</t>
   </si>
   <si>
-    <t>E-Mail Address does not appear to be valid!</t>
-  </si>
-  <si>
     <t>Telephone must be between 3 and 32 characters!</t>
   </si>
   <si>
@@ -232,13 +230,217 @@
   </si>
   <si>
     <t>Если оставить поля пустыми, не установить галочку в чекбокс и нажать кнопку Continue</t>
+  </si>
+  <si>
+    <t>Warning: You must agree to the Privacy Policy!</t>
+  </si>
+  <si>
+    <t>Не установлена галочка в чекбоксе:
+"I have read and agree to the Privacy Policy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попадаем на http://&lt;HOST_IP&gt;/index.php?route=account/success
+</t>
+  </si>
+  <si>
+    <t>Your Account Has Been Created!</t>
+  </si>
+  <si>
+    <t>"#content h1"</t>
+  </si>
+  <si>
+    <t>Shopping Cart</t>
+  </si>
+  <si>
+    <t>".alert.alert-success.alert-dismissible"</t>
+  </si>
+  <si>
+    <t>You have modified your shopping cart!</t>
+  </si>
+  <si>
+    <t>Сообщение появляется, если изменить количество покупок (Quantity) и нажать кнопку "Обновить"</t>
+  </si>
+  <si>
+    <t>".input-group-btn .btn.btn-primary"</t>
+  </si>
+  <si>
+    <t>".input-group-btn .btn.btn-danger"</t>
+  </si>
+  <si>
+    <t>Кнопка Update</t>
+  </si>
+  <si>
+    <t>Кнопка Remove</t>
+  </si>
+  <si>
+    <t>"#form-review .alert.alert-success.alert-dismissible"</t>
+  </si>
+  <si>
+    <t>Thank you for your review. It has been submitted to the webmaster for approval.</t>
+  </si>
+  <si>
+    <t>Сообщение появляется после отправки отзыва:
+• заполнить Your Name
+• заполнить Your Rewiew
+• нажать кнопку Continue</t>
+  </si>
+  <si>
+    <t>Warning: Please select a review rating!</t>
+  </si>
+  <si>
+    <t>"#form-review .alert.alert-danger.alert-dismissible"</t>
+  </si>
+  <si>
+    <t>Сообщение появляется, если не поставить оценку</t>
+  </si>
+  <si>
+    <t>E-Mail Address does not appear to be valid!
+Alert: Пожалуйста, введите адрес электронной почты</t>
+  </si>
+  <si>
+    <t>Алерт появляется, когда:
+отсутствует имя почтового ящика или оно представляет собой пробельные символы (до @mail.com)
+когда отсутствует символ @
+Не принимает символы ()\.,/ - главное, чтобы соответствовало маске: *@*.*</t>
+  </si>
+  <si>
+    <t>Элемент для заполнения</t>
+  </si>
+  <si>
+    <t>Вводимые значения</t>
+  </si>
+  <si>
+    <t>Тест № 1</t>
+  </si>
+  <si>
+    <t>Тест № 2</t>
+  </si>
+  <si>
+    <t>Тест № 3</t>
+  </si>
+  <si>
+    <t>Тест № 4</t>
+  </si>
+  <si>
+    <t>Тест № 5</t>
+  </si>
+  <si>
+    <t>Тест № 6</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Password Confirm</t>
+  </si>
+  <si>
+    <t>Checkbox "I agree to the Privacy Policy"</t>
+  </si>
+  <si>
+    <t>&lt;пустое поле&gt;</t>
+  </si>
+  <si>
+    <t>&lt;не поставлен&gt;</t>
+  </si>
+  <si>
+    <t>Autotest</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>test01@test.com</t>
+  </si>
+  <si>
+    <t>12QWas!@</t>
+  </si>
+  <si>
+    <t>&lt;поставлен&gt;</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>11 random numbers</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>32 символа</t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Тест № 7</t>
+  </si>
+  <si>
+    <t>Тест № 8</t>
+  </si>
+  <si>
+    <t>Тест № 9</t>
+  </si>
+  <si>
+    <t>Тест № 10</t>
+  </si>
+  <si>
+    <t>33 символа</t>
+  </si>
+  <si>
+    <t>Seventh</t>
+  </si>
+  <si>
+    <t>Eighth</t>
+  </si>
+  <si>
+    <t>&lt;random&gt;@test.com</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Набор букв</t>
+  </si>
+  <si>
+    <t>Тест № 11</t>
+  </si>
+  <si>
+    <t>&lt;Невалидные_значения&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valid value&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +463,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +479,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,11 +502,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -308,25 +597,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,7 +949,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,130 +963,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -865,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,18 +1217,19 @@
     <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="41.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -912,7 +1250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -925,12 +1263,12 @@
       <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -950,7 +1288,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -967,7 +1305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -984,7 +1322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -998,10 +1336,13 @@
         <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1015,10 +1356,10 @@
         <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1032,10 +1373,10 @@
         <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1048,8 +1389,17 @@
       <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1059,8 +1409,12 @@
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1070,61 +1424,498 @@
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8">
+        <v>89220123456</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="C11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Course_project/Инвентаризация_кода.xlsx
+++ b/Course_project/Инвентаризация_кода.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
   <si>
     <t>№</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>&lt;valid value&gt;</t>
+  </si>
+  <si>
+    <t>Password confirmation does not match password!</t>
   </si>
 </sst>
 </file>
@@ -612,18 +615,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -665,6 +656,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,7 +986,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1000,7 +1003,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1018,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1047,7 +1050,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1079,7 +1082,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1204,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1222,12 +1225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1263,10 +1266,10 @@
       <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1304,6 +1307,9 @@
       <c r="G5" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1375,6 +1381,9 @@
       <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1409,10 +1418,10 @@
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1506,7 +1515,7 @@
   <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1522,55 +1531,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1578,7 +1587,7 @@
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1587,16 +1596,16 @@
       <c r="D4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1619,7 +1628,7 @@
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1628,16 +1637,16 @@
       <c r="D5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="18" t="s">
         <v>112</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1660,7 +1669,7 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
@@ -1669,16 +1678,16 @@
       <c r="D6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>122</v>
       </c>
       <c r="I6" t="s">
@@ -1701,7 +1710,7 @@
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="8">
@@ -1710,16 +1719,16 @@
       <c r="D7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="18" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1742,7 +1751,7 @@
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
@@ -1751,16 +1760,16 @@
       <c r="D8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I8" t="s">
@@ -1783,7 +1792,7 @@
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="s">
@@ -1792,16 +1801,16 @@
       <c r="D9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I9" t="s">
@@ -1824,7 +1833,7 @@
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1833,16 +1842,16 @@
       <c r="D10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="18" t="s">
         <v>106</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1869,16 +1878,16 @@
       <c r="D11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="24" t="s">
         <v>123</v>
       </c>
       <c r="I11" s="8" t="s">

--- a/Course_project/Инвентаризация_кода.xlsx
+++ b/Course_project/Инвентаризация_кода.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Register new user" sheetId="3" r:id="rId3"/>
+    <sheet name="Test_Cases" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
   <si>
     <t>№</t>
   </si>
@@ -437,6 +438,58 @@
   </si>
   <si>
     <t>Password confirmation does not match password!</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину с главной страницы</t>
+  </si>
+  <si>
+    <t>Проверка соответствия названия и цены товара на карточке и в корзине</t>
+  </si>
+  <si>
+    <t>Поменять валюту и проверить, что она поменялась у товаров</t>
+  </si>
+  <si>
+    <t>Нажать несколько раз на кнопку "ADD TO CARD" и проверить количество товара в корзине</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину из каталога товаров</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину со страницы (из карточки) товара</t>
+  </si>
+  <si>
+    <t>Попытка помещения товара в "виш лист" без регистрации на сайте</t>
+  </si>
+  <si>
+    <t>Попытка помещения товара в "виш лист" после регистрации на сайте</t>
+  </si>
+  <si>
+    <t>Добавление товаров в список сравнения</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Перейти по URL http://LOCAL_IP</t>
+  </si>
+  <si>
+    <t>Открыта главная страница OpenCart</t>
+  </si>
+  <si>
+    <t>"button[data-original-title='Add to Wish List']"</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Add to Cart" на одном из товаров</t>
+  </si>
+  <si>
+    <t>"button[data-original-title='Compare this Product']"</t>
+  </si>
+  <si>
+    <t>Появилось сообщение:
+"You have added &lt;ссылка на карточку выбранного товара&gt; to your &lt;ссылка на страницу корзины, shopping cart&gt;!"</t>
+  </si>
+  <si>
+    <t>SUCCESS_ALERT</t>
   </si>
 </sst>
 </file>
@@ -589,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -655,6 +708,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,7 +1045,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1003,7 +1062,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1077,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1092,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1050,7 +1109,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1124,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1082,7 +1141,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1225,12 +1284,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1266,10 +1325,10 @@
       <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1418,10 +1477,10 @@
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1514,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1531,10 +1590,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1547,8 +1606,8 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="10" t="s">
         <v>87</v>
       </c>
@@ -1929,4 +1988,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A38:C38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>